--- a/tests/test_data/batch_specification1.xlsx
+++ b/tests/test_data/batch_specification1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\gomoryova\src\rcx-tk\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CF8EE3-0F42-4898-A2E1-D4060EF660CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9681C776-4509-44A9-BE6F-E6CEFFAADDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51B3FE97-033C-4EA9-9864-E69658D3089D}"/>
+    <workbookView xWindow="5100" yWindow="-14115" windowWidth="17280" windowHeight="8880" xr2:uid="{51B3FE97-033C-4EA9-9864-E69658D3089D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Analytical order</t>
   </si>
   <si>
-    <t>Inject. volume (µL)</t>
-  </si>
-  <si>
     <t>Included</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>QC</t>
+  </si>
+  <si>
+    <t>Inject. volume (μL)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,21 +538,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -650,13 +650,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -676,13 +676,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -728,13 +728,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -780,13 +780,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -806,13 +806,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>3</v>
